--- a/Rendu_3/jeux d instructions.xlsx
+++ b/Rendu_3/jeux d instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan\Documents\Git\LaboSystemNumeric\Rendu_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/Rendu_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F798DD-752B-4D2E-A89B-846A24A42B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -507,14 +507,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -826,8 +826,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,17 +841,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="F1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="23"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -2006,7 +2006,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="22" t="s">
         <v>106</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -2030,7 +2030,7 @@
       <c r="H38" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="25" t="s">
+      <c r="I38" s="23" t="s">
         <v>108</v>
       </c>
       <c r="J38" s="11" t="s">
@@ -2038,7 +2038,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -2062,7 +2062,7 @@
       <c r="H39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="25" t="s">
+      <c r="I39" s="23" t="s">
         <v>109</v>
       </c>
       <c r="J39" s="11" t="s">
